--- a/biology/Botanique/Esplanade_(Riga)/Esplanade_(Riga).xlsx
+++ b/biology/Botanique/Esplanade_(Riga)/Esplanade_(Riga).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Esplanade (en letton : Esplanāde) est un parc public de Riga en Lettonie.
 </t>
@@ -511,9 +523,11 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc s'étend au centre de la ville sur une superficie de 8,7 hectares[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc s'étend au centre de la ville sur une superficie de 8,7 hectares.
 L'esplanade est délimitée par les rues Krišjāņa Valdemāra iela, Elizabetes iela et Brīvības bulvāris et Kalpaka bulvāris.
 Dans l'Esplanade s'élèvent le Musée national des arts au nord, l'Académie des beaux-arts à l'ouest et la cathédrale de la Nativité au sud.
 </t>
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine espace recouvert de dunes, l'endroit, du temps où Riga était capitale du gouvernement de Livonie de l'Empire russe en 1812, servait de place d'armes et de parades militaires. 
 L'administration de la ville décide d'aménager un parc pour le sept centième anniversaire de la fondation de la ville. 
@@ -588,7 +604,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est planté d'espèces variées : Ginkgo biloba, charme commun (Carpinus betulus), le hêtre commun (Fagus sylvatica), le hêtre rouge (Fagus sylvatica purpurea latifolia), le bouleau jaune (Betula alleghaniensis), catalpa ovoïde (Catalpa ovata ), Noyer de Mandchourie (Juglas mandshurica), arbre au liège de l'Amour (Phellodendron de amurensis), érable champêtre  (Acer campestre), sycomore (Acer pseudoplatanus), Bouleau flexible  (Betula lenta) Sapin du Colorado (Abies concolor) et autres espèces d'arbres (10 locales et 82 espèces exotiques d'arbres et arbustes).
 </t>
